--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value131.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value131.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9541457371275115</v>
+        <v>0.299610048532486</v>
       </c>
       <c r="B1">
-        <v>1.717272582570628</v>
+        <v>2.469788551330566</v>
       </c>
       <c r="C1">
-        <v>3.641169870378587</v>
+        <v>4.11912202835083</v>
       </c>
       <c r="D1">
-        <v>2.578982588666697</v>
+        <v>1.453192591667175</v>
       </c>
       <c r="E1">
-        <v>1.05244846995008</v>
+        <v>0.6663867235183716</v>
       </c>
     </row>
   </sheetData>
